--- a/projet5/results/results.xlsx
+++ b/projet5/results/results.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexi\Documents\RODD\projet5\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23215FFE-6D7D-4445-9E48-32E022ADEE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763E66C4-8001-48E6-9A52-AAD4A72B4222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DA7D3E6B-B392-4675-95B9-2AF01ED80FAA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{DA7D3E6B-B392-4675-95B9-2AF01ED80FAA}"/>
   </bookViews>
   <sheets>
     <sheet name="results.xlsx" sheetId="1" r:id="rId1"/>
     <sheet name="results_Emax=4" sheetId="2" r:id="rId2"/>
+    <sheet name="plus grands T" sheetId="3" r:id="rId3"/>
+    <sheet name="plus de modes" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>T</t>
   </si>
@@ -46,6 +48,42 @@
   </si>
   <si>
     <t>Moyenne</t>
+  </si>
+  <si>
+    <t>Objectif_18</t>
+  </si>
+  <si>
+    <t>Moyenne_18</t>
+  </si>
+  <si>
+    <t>Objectif_24</t>
+  </si>
+  <si>
+    <t>Moyenne_24</t>
+  </si>
+  <si>
+    <t>Moyenne_30</t>
+  </si>
+  <si>
+    <t>Objectif_30</t>
+  </si>
+  <si>
+    <t>Objectif_6</t>
+  </si>
+  <si>
+    <t>Moyenne_6</t>
+  </si>
+  <si>
+    <t>Objectif_8</t>
+  </si>
+  <si>
+    <t>Moyenne_8</t>
+  </si>
+  <si>
+    <t>Objectif_10</t>
+  </si>
+  <si>
+    <t>Moyenne_10</t>
   </si>
 </sst>
 </file>
@@ -2205,6 +2243,3887 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Objectif en fonction</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> de la longueur de l'intervalle</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'plus grands T'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Objectif_18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'plus grands T'!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'plus grands T'!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1061</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1032.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>954.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>943</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>951.67</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>910.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>908.17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>896.33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>913</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>886</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>868</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>857.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>855</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>839</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>827</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>844</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>857.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E5DE-483F-BC85-4B366CD46FD3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'plus grands T'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Objectif_24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'plus grands T'!$D$2:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1590</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1518.89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1428.27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1371.37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1359.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1358.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1341.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1309</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1322.33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1311.69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1304</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1318</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1296</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1273.67</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1265.33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1257</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1254</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1268.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1256.67</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1256.67</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1234.73</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1247</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1257</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1298</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E5DE-483F-BC85-4B366CD46FD3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'plus grands T'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Objectif_30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'plus grands T'!$F$2:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1919.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1746</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1785.27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1683.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1701.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1689.33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1623.67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1641</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1637.67</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1632</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1638.67</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1599.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1616.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1614</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1590</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1590</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1552.33</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1562.33</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1562.33</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1527</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1538</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1533.33</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1508</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1528.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1554.33</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1596.33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1604</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E5DE-483F-BC85-4B366CD46FD3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="266268751"/>
+        <c:axId val="443120271"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="266268751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Longueur</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t> de l'intervalle glissant R</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="443120271"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="443120271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2000"/>
+          <c:min val="800"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Objectif</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="266268751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Moyenne des émissions </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>en fonction de la longueur de l'intervalle</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR" sz="1100">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'plus grands T'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Moyenne_18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'plus grands T'!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'plus grands T'!$C$2:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6872246696035198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9427312775330399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.82868330885952</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9397944199706298</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9544787077826702</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9368575624082198</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0866372980910399</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8575624082231998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0308370044052801</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.2129221732745901</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2613803230543299</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.3303964757709199</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.4449339207048402</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.63876651982378</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.45668135095447</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.12775330396475</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-33CA-40F1-9010-85BA611DA6B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'plus grands T'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Moyenne_24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'plus grands T'!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'plus grands T'!$E$2:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>2.0000000121866699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.77022583559169</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8041553748870802</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9335140018066799</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.86811201445347</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9918699186991802</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0831074977416399</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.04155374887082</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0956960107235401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1598915989159799</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9918699186991802</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.0785907859186898</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.2168021680216801</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.1915085817524802</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.3080397470641301</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.3911472448057798</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.4354110207768702</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.54652213188798</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.54652213188798</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.6522131887985498</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.38301716350496</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.24390243902439</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.9936766034327</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-33CA-40F1-9010-85BA611DA6B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'plus grands T'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Moyenne_30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'plus grands T'!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'plus grands T'!$G$2:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5586157125681601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.72049987983657</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7201634222542599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8932948810382002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8519106011105801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.97116077865897</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.99134823359769</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0879596250901198</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9956741167988401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.95890410958904</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1052631578947398</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.28334534967555</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1614996395097301</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.1045421773612101</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.1045421773853699</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.2400865176640199</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2422494592645998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.36337418889689</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.4167267483777901</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.4167267483777901</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.5623648161499601</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.50829127613554</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.6315789473684199</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.5731795241528399</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.4203316510454198</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.2451333813986998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.0829127613554399</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9949531362653201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-33CA-40F1-9010-85BA611DA6B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="266268751"/>
+        <c:axId val="443120271"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="266268751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Longueur de l'intervalle glissant R</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="443120271"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="443120271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1.9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Moyenne des émissions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="266268751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Objectif en fonction</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> de la longueur de l'intervalle</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'plus de modes'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Objectif_6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'plus de modes'!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'plus de modes'!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>692</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>692</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>692</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>684.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>684.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>664</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>644</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>647.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>639.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>652</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>659</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0233-4A18-BEFD-B071B84B0969}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'plus de modes'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Objectif_8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'plus de modes'!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'plus de modes'!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>692</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>692</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>692</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>684.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>684.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>664</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>629.07000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>619</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>600.33000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>633</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>653.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>659</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0233-4A18-BEFD-B071B84B0969}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'plus de modes'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Objectif_10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'plus de modes'!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'plus de modes'!$H$2:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>692</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>692</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>692</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>684.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>684.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>664</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>592.66999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>592.66999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>590.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>628</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>647</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>659</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0233-4A18-BEFD-B071B84B0969}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'plus de modes'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Objectif</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'plus de modes'!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>812</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>787.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>716.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>738.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>704</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>674</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>656.36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>650.79</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>645.58000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>652</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>660.33</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>662.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0233-4A18-BEFD-B071B84B0969}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="266268751"/>
+        <c:axId val="443120271"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="266268751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Longueur</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t> de l'intervalle glissant R</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="443120271"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="443120271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="850"/>
+          <c:min val="550"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Objectif</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="266268751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Moyenne des émissions </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>en fonction de la longueur de l'intervalle</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR" sz="1100">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'plus de modes'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Moyenne_6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'plus de modes'!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'plus de modes'!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9720394736842102</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1973684210526301</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3371710526315699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.4618421052631501</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5328947368421</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4259868421052602</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9901315789473601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5203-46CA-94CF-1A62F02FA530}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'plus de modes'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Moyenne_8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'plus de modes'!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'plus de modes'!$G$2:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.96875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6062030075187899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.7598684210526301</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8733552631578898</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.98684210526315</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4638157894736801</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.98519736842105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5203-46CA-94CF-1A62F02FA530}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'plus de modes'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Moyenne_10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'plus de modes'!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'plus de modes'!$I$2:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.99999999999506</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.96875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8733552631578898</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8733552631578898</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.98684210526315</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.8717105263157801</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4407894736842102</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.98190789473683</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5203-46CA-94CF-1A62F02FA530}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'plus de modes'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Moyenne</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'plus de modes'!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5970394736842102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8578947368421002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8332236842105201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6611842105263102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9703947368421</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2332785087719298</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3637609649122799</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3684210526315699</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5328947368421</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4638157894736801</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5203-46CA-94CF-1A62F02FA530}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="266268751"/>
+        <c:axId val="443120271"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="266268751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Longueur de l'intervalle glissant R</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="443120271"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="443120271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1.9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Moyenne des émissions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="266268751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2365,6 +6284,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3914,6 +7993,2070 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4567,6 +10710,168 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8EB5C9D-8F3E-4B84-AFD2-A8369F98CF4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAEF02A8-1D3D-4B27-A163-137F32B5B085}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>52389</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FB5725C-511A-4C6F-A739-EB79C4B9BA18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>723901</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03821BE6-47C0-4D75-A3A5-DAD9AC1A518A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>638176</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>90489</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23AAF494-34F3-4FAB-B7AD-765B347BF3CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4889,7 +11194,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C13"/>
+      <selection activeCell="B1" sqref="B1:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5050,8 +11355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA12351-6765-4797-802E-FC1512A8A766}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5203,4 +11508,1041 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3838BC09-AEA5-4E48-AF22-7F2D5BED3771}">
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1061</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1590</v>
+      </c>
+      <c r="E2">
+        <v>2.0000000121866699</v>
+      </c>
+      <c r="F2">
+        <v>1984</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1032.67</v>
+      </c>
+      <c r="C3">
+        <v>2.6872246696035198</v>
+      </c>
+      <c r="D3">
+        <v>1518.89</v>
+      </c>
+      <c r="E3">
+        <v>2.77022583559169</v>
+      </c>
+      <c r="F3">
+        <v>1919.87</v>
+      </c>
+      <c r="G3">
+        <v>2.5586157125681601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>954.67</v>
+      </c>
+      <c r="C4">
+        <v>2.9427312775330399</v>
+      </c>
+      <c r="D4">
+        <v>1428.27</v>
+      </c>
+      <c r="E4">
+        <v>2.8041553748870802</v>
+      </c>
+      <c r="F4">
+        <v>1746</v>
+      </c>
+      <c r="G4">
+        <v>2.72049987983657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>943</v>
+      </c>
+      <c r="C5">
+        <v>2.82868330885952</v>
+      </c>
+      <c r="D5">
+        <v>1371.37</v>
+      </c>
+      <c r="E5">
+        <v>2.9335140018066799</v>
+      </c>
+      <c r="F5">
+        <v>1785.27</v>
+      </c>
+      <c r="G5">
+        <v>2.7201634222542599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>951.67</v>
+      </c>
+      <c r="C6">
+        <v>2.9397944199706298</v>
+      </c>
+      <c r="D6">
+        <v>1359.5</v>
+      </c>
+      <c r="E6">
+        <v>2.86811201445347</v>
+      </c>
+      <c r="F6">
+        <v>1683.5</v>
+      </c>
+      <c r="G6">
+        <v>2.8932948810382002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>910.5</v>
+      </c>
+      <c r="C7">
+        <v>2.9544787077826702</v>
+      </c>
+      <c r="D7">
+        <v>1358.5</v>
+      </c>
+      <c r="E7">
+        <v>2.9918699186991802</v>
+      </c>
+      <c r="F7">
+        <v>1701.8</v>
+      </c>
+      <c r="G7">
+        <v>2.8519106011105801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>908.17</v>
+      </c>
+      <c r="C8">
+        <v>2.9368575624082198</v>
+      </c>
+      <c r="D8">
+        <v>1341.25</v>
+      </c>
+      <c r="E8">
+        <v>3.0831074977416399</v>
+      </c>
+      <c r="F8">
+        <v>1689.33</v>
+      </c>
+      <c r="G8">
+        <v>2.97116077865897</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>896.33</v>
+      </c>
+      <c r="C9">
+        <v>3.0866372980910399</v>
+      </c>
+      <c r="D9">
+        <v>1309</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1623.67</v>
+      </c>
+      <c r="G9">
+        <v>2.99134823359769</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>913</v>
+      </c>
+      <c r="C10">
+        <v>2.8575624082231998</v>
+      </c>
+      <c r="D10">
+        <v>1322.33</v>
+      </c>
+      <c r="E10">
+        <v>3.04155374887082</v>
+      </c>
+      <c r="F10">
+        <v>1641</v>
+      </c>
+      <c r="G10">
+        <v>3.0879596250901198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>886</v>
+      </c>
+      <c r="C11">
+        <v>3.0308370044052801</v>
+      </c>
+      <c r="D11">
+        <v>1311.69</v>
+      </c>
+      <c r="E11">
+        <v>3.0956960107235401</v>
+      </c>
+      <c r="F11">
+        <v>1637.67</v>
+      </c>
+      <c r="G11">
+        <v>2.9956741167988401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>868</v>
+      </c>
+      <c r="C12">
+        <v>3.2129221732745901</v>
+      </c>
+      <c r="D12">
+        <v>1304</v>
+      </c>
+      <c r="E12">
+        <v>3.1598915989159799</v>
+      </c>
+      <c r="F12">
+        <v>1632</v>
+      </c>
+      <c r="G12">
+        <v>2.95890410958904</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>857.5</v>
+      </c>
+      <c r="C13">
+        <v>3.2613803230543299</v>
+      </c>
+      <c r="D13">
+        <v>1318</v>
+      </c>
+      <c r="E13">
+        <v>2.9918699186991802</v>
+      </c>
+      <c r="F13">
+        <v>1638.67</v>
+      </c>
+      <c r="G13">
+        <v>3.1052631578947398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>855</v>
+      </c>
+      <c r="C14">
+        <v>3.3303964757709199</v>
+      </c>
+      <c r="D14">
+        <v>1296</v>
+      </c>
+      <c r="E14">
+        <v>3.0785907859186898</v>
+      </c>
+      <c r="F14">
+        <v>1599.5</v>
+      </c>
+      <c r="G14">
+        <v>3.28334534967555</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>839</v>
+      </c>
+      <c r="C15">
+        <v>3.4449339207048402</v>
+      </c>
+      <c r="D15">
+        <v>1273.67</v>
+      </c>
+      <c r="E15">
+        <v>3.2168021680216801</v>
+      </c>
+      <c r="F15">
+        <v>1616.3</v>
+      </c>
+      <c r="G15">
+        <v>3.1614996395097301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>827</v>
+      </c>
+      <c r="C16">
+        <v>3.63876651982378</v>
+      </c>
+      <c r="D16">
+        <v>1265.33</v>
+      </c>
+      <c r="E16">
+        <v>3.1915085817524802</v>
+      </c>
+      <c r="F16">
+        <v>1614</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>844</v>
+      </c>
+      <c r="C17">
+        <v>3.45668135095447</v>
+      </c>
+      <c r="D17">
+        <v>1257</v>
+      </c>
+      <c r="E17">
+        <v>3.3080397470641301</v>
+      </c>
+      <c r="F17">
+        <v>1590</v>
+      </c>
+      <c r="G17">
+        <v>3.1045421773612101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>875</v>
+      </c>
+      <c r="C18">
+        <v>3.12775330396475</v>
+      </c>
+      <c r="D18">
+        <v>1254</v>
+      </c>
+      <c r="E18">
+        <v>3.3911472448057798</v>
+      </c>
+      <c r="F18">
+        <v>1590</v>
+      </c>
+      <c r="G18">
+        <v>3.1045421773853699</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>857.5</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>1268.5</v>
+      </c>
+      <c r="E19">
+        <v>3.4354110207768702</v>
+      </c>
+      <c r="F19">
+        <v>1552.33</v>
+      </c>
+      <c r="G19">
+        <v>3.2400865176640199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>1256.67</v>
+      </c>
+      <c r="E20">
+        <v>3.54652213188798</v>
+      </c>
+      <c r="F20">
+        <v>1562.33</v>
+      </c>
+      <c r="G20">
+        <v>3.2422494592645998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>1256.67</v>
+      </c>
+      <c r="E21">
+        <v>3.54652213188798</v>
+      </c>
+      <c r="F21">
+        <v>1562.33</v>
+      </c>
+      <c r="G21">
+        <v>3.36337418889689</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>1234.73</v>
+      </c>
+      <c r="E22">
+        <v>3.6522131887985498</v>
+      </c>
+      <c r="F22">
+        <v>1527</v>
+      </c>
+      <c r="G22">
+        <v>3.4167267483777901</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>1247</v>
+      </c>
+      <c r="E23">
+        <v>3.38301716350496</v>
+      </c>
+      <c r="F23">
+        <v>1538</v>
+      </c>
+      <c r="G23">
+        <v>3.4167267483777901</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>1257</v>
+      </c>
+      <c r="E24">
+        <v>3.24390243902439</v>
+      </c>
+      <c r="F24">
+        <v>1500</v>
+      </c>
+      <c r="G24">
+        <v>3.5623648161499601</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>1298</v>
+      </c>
+      <c r="E25">
+        <v>2.9936766034327</v>
+      </c>
+      <c r="F25">
+        <v>1533.33</v>
+      </c>
+      <c r="G25">
+        <v>3.50829127613554</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="F26">
+        <v>1508</v>
+      </c>
+      <c r="G26">
+        <v>3.6315789473684199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="F27">
+        <v>1500</v>
+      </c>
+      <c r="G27">
+        <v>3.5731795241528399</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="F28">
+        <v>1528.4</v>
+      </c>
+      <c r="G28">
+        <v>3.4203316510454198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="F29">
+        <v>1554.33</v>
+      </c>
+      <c r="G29">
+        <v>3.2451333813986998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="F30">
+        <v>1596.33</v>
+      </c>
+      <c r="G30">
+        <v>3.0829127613554399</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="F31">
+        <v>1604</v>
+      </c>
+      <c r="G31">
+        <v>2.9949531362653201</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <f>26/30</f>
+        <v>0.8666666666666667</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <f>21/24</f>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <f>15/18</f>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E86B0A-1990-47F6-8108-ED5DD445BC96}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>812</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>692</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>692</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>692</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>787.5</v>
+      </c>
+      <c r="C3">
+        <v>2.5970394736842102</v>
+      </c>
+      <c r="D3">
+        <v>692</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>692</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>692</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>716.8</v>
+      </c>
+      <c r="C4">
+        <v>2.8578947368421002</v>
+      </c>
+      <c r="D4">
+        <v>692</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>692</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>692</v>
+      </c>
+      <c r="I4">
+        <v>2.99999999999506</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>738.97</v>
+      </c>
+      <c r="C5">
+        <v>2.8332236842105201</v>
+      </c>
+      <c r="D5">
+        <v>684.8</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>684.8</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>684.8</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>704</v>
+      </c>
+      <c r="C6">
+        <v>2.6611842105263102</v>
+      </c>
+      <c r="D6">
+        <v>684.8</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>684.8</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>684.8</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>674</v>
+      </c>
+      <c r="C7">
+        <v>2.9703947368421</v>
+      </c>
+      <c r="D7">
+        <v>664</v>
+      </c>
+      <c r="E7">
+        <v>2.9720394736842102</v>
+      </c>
+      <c r="F7">
+        <v>664</v>
+      </c>
+      <c r="G7">
+        <v>2.96875</v>
+      </c>
+      <c r="H7">
+        <v>664</v>
+      </c>
+      <c r="I7">
+        <v>2.96875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>656.36</v>
+      </c>
+      <c r="C8">
+        <v>3.2332785087719298</v>
+      </c>
+      <c r="D8">
+        <v>644</v>
+      </c>
+      <c r="E8">
+        <v>3.1973684210526301</v>
+      </c>
+      <c r="F8">
+        <v>629.07000000000005</v>
+      </c>
+      <c r="G8">
+        <v>3.6062030075187899</v>
+      </c>
+      <c r="H8">
+        <v>592.66999999999996</v>
+      </c>
+      <c r="I8">
+        <v>3.8733552631578898</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>650.79</v>
+      </c>
+      <c r="C9">
+        <v>3.3637609649122799</v>
+      </c>
+      <c r="D9">
+        <v>647.5</v>
+      </c>
+      <c r="E9">
+        <v>3.3371710526315699</v>
+      </c>
+      <c r="F9">
+        <v>619</v>
+      </c>
+      <c r="G9">
+        <v>3.7598684210526301</v>
+      </c>
+      <c r="H9">
+        <v>592.66999999999996</v>
+      </c>
+      <c r="I9">
+        <v>3.8733552631578898</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>645.58000000000004</v>
+      </c>
+      <c r="C10">
+        <v>3.3684210526315699</v>
+      </c>
+      <c r="D10">
+        <v>639.79999999999995</v>
+      </c>
+      <c r="E10">
+        <v>3.4618421052631501</v>
+      </c>
+      <c r="F10">
+        <v>600.33000000000004</v>
+      </c>
+      <c r="G10">
+        <v>3.8733552631578898</v>
+      </c>
+      <c r="H10">
+        <v>590.5</v>
+      </c>
+      <c r="I10">
+        <v>3.98684210526315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>652</v>
+      </c>
+      <c r="C11">
+        <v>3.5328947368421</v>
+      </c>
+      <c r="D11">
+        <v>652</v>
+      </c>
+      <c r="E11">
+        <v>3.5328947368421</v>
+      </c>
+      <c r="F11">
+        <v>633</v>
+      </c>
+      <c r="G11">
+        <v>3.98684210526315</v>
+      </c>
+      <c r="H11">
+        <v>628</v>
+      </c>
+      <c r="I11">
+        <v>3.8717105263157801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>660.33</v>
+      </c>
+      <c r="C12">
+        <v>3.4638157894736801</v>
+      </c>
+      <c r="D12">
+        <v>657</v>
+      </c>
+      <c r="E12">
+        <v>3.4259868421052602</v>
+      </c>
+      <c r="F12">
+        <v>653.29999999999995</v>
+      </c>
+      <c r="G12">
+        <v>3.4638157894736801</v>
+      </c>
+      <c r="H12">
+        <v>647</v>
+      </c>
+      <c r="I12">
+        <v>3.4407894736842102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>662.33</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>659</v>
+      </c>
+      <c r="E13">
+        <v>2.9901315789473601</v>
+      </c>
+      <c r="F13">
+        <v>659</v>
+      </c>
+      <c r="G13">
+        <v>2.98519736842105</v>
+      </c>
+      <c r="H13">
+        <v>659</v>
+      </c>
+      <c r="I13">
+        <v>2.98190789473683</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>